--- a/Datos/Anuario2024/120402_Arbolado.xlsx
+++ b/Datos/Anuario2024/120402_Arbolado.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="8" r:id="rId1"/>
+    <sheet name="1" sheetId="111" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -54,70 +60,399 @@
     <definedName name="_R6_2">#REF!</definedName>
     <definedName name="_R6_5">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Ciprés</t>
+  </si>
+  <si>
+    <t>Árbol del amor</t>
+  </si>
+  <si>
+    <t>Olivo</t>
+  </si>
+  <si>
+    <t>Melia azedarach</t>
+  </si>
+  <si>
+    <t>Otras especies</t>
+  </si>
+  <si>
+    <t>Árbol pica-pica</t>
+  </si>
+  <si>
+    <t>Encina</t>
+  </si>
+  <si>
+    <t>Jacaranda</t>
+  </si>
+  <si>
+    <t>Palmera canaria</t>
+  </si>
+  <si>
+    <t>Naranjo amargo</t>
+  </si>
+  <si>
+    <t>Lagunaria patersonii</t>
+  </si>
+  <si>
+    <t>Chamaerops humilis</t>
+  </si>
+  <si>
+    <t>Arce de hoja fresno</t>
+  </si>
+  <si>
+    <t>Laurel de Indias</t>
+  </si>
+  <si>
+    <t>Ficus nitida</t>
+  </si>
+  <si>
+    <t>Pino de oro</t>
+  </si>
+  <si>
+    <t>Jacaranda mimosifolia</t>
+  </si>
+  <si>
+    <t>Jabonero de China</t>
+  </si>
+  <si>
+    <t>Koelreuteria paniculata</t>
+  </si>
+  <si>
+    <t>Aligustre del Japón</t>
+  </si>
+  <si>
+    <t>Cinamomo</t>
+  </si>
+  <si>
+    <t>Morera blanca</t>
+  </si>
+  <si>
+    <t>Morus alba</t>
+  </si>
+  <si>
+    <t>Olea europaea</t>
+  </si>
+  <si>
+    <t>Palmera datilera</t>
+  </si>
+  <si>
+    <t>Pino carrasco</t>
+  </si>
+  <si>
+    <t>Álamo blanco</t>
+  </si>
+  <si>
+    <t>Ciruelo de Pissard</t>
+  </si>
+  <si>
+    <t>Falsa acacia</t>
+  </si>
+  <si>
+    <t>Acacia del Japón</t>
+  </si>
+  <si>
+    <t>Sophora japonica</t>
+  </si>
+  <si>
+    <t>Palmera de Fortune</t>
+  </si>
+  <si>
+    <t>Olmo de Siberia</t>
+  </si>
+  <si>
+    <t>Palmera de California</t>
+  </si>
+  <si>
+    <t>Palmera mexicana</t>
+  </si>
+  <si>
+    <t>Washingtonia robusta</t>
+  </si>
+  <si>
+    <t>Nombre científico</t>
+  </si>
+  <si>
+    <t>Citrus aurantium</t>
+  </si>
+  <si>
+    <t>Platanus hispanica</t>
+  </si>
+  <si>
+    <t>Acer negundo</t>
+  </si>
+  <si>
+    <t>Ligustrum japonicum</t>
+  </si>
+  <si>
+    <t>Phoenix dactylifera</t>
+  </si>
+  <si>
+    <t>Celtis australis</t>
+  </si>
+  <si>
+    <t>Brachychiton populneum</t>
+  </si>
+  <si>
+    <t>Árbol botella</t>
+  </si>
+  <si>
+    <t>Cupressus sempervirens</t>
+  </si>
+  <si>
+    <t>Cercis siliquastrum</t>
+  </si>
+  <si>
+    <t>Pinus pinea</t>
+  </si>
+  <si>
+    <t>Pino piñonero</t>
+  </si>
+  <si>
+    <t>Tipuana tipu</t>
+  </si>
+  <si>
+    <t>Tipuana palo rosa</t>
+  </si>
+  <si>
+    <t>Phoenix canariensis</t>
+  </si>
+  <si>
+    <t>Pinus halepensis</t>
+  </si>
+  <si>
+    <t>Robinia pseudoacacia</t>
+  </si>
+  <si>
+    <t>Populus alba</t>
+  </si>
+  <si>
+    <t>Grevillea robusta</t>
+  </si>
+  <si>
+    <t>Ulmus pumila</t>
+  </si>
+  <si>
+    <t>Fraxinus angustifolia</t>
+  </si>
+  <si>
+    <t>Fresno de hoja estrecha</t>
+  </si>
+  <si>
+    <t>Trachycarpus fortunei</t>
+  </si>
+  <si>
+    <t>Fraxinus ornus</t>
+  </si>
+  <si>
+    <t>Fresno de flor</t>
+  </si>
+  <si>
+    <t>Washingtonia filifera</t>
+  </si>
+  <si>
+    <t>Catalpa bignonioides</t>
+  </si>
+  <si>
+    <t>Catalpa común</t>
+  </si>
+  <si>
+    <t>Tilo de Holanda</t>
+  </si>
+  <si>
+    <t>Brachychiton acerifolium</t>
+  </si>
+  <si>
+    <t>Árbol de fuego illawarra</t>
+  </si>
+  <si>
+    <t>Laurus nobilis</t>
+  </si>
+  <si>
+    <t>Laurel</t>
+  </si>
+  <si>
+    <t>Viario</t>
+  </si>
+  <si>
+    <t>Jardín</t>
+  </si>
+  <si>
+    <t>Nombre común</t>
+  </si>
+  <si>
+    <t>Plátano de sombra</t>
+  </si>
+  <si>
+    <t>Almez</t>
+  </si>
+  <si>
+    <t>Palmito</t>
+  </si>
+  <si>
+    <t>Quercus ilex</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Aligustre del Japón variegado</t>
+  </si>
+  <si>
+    <t>Ligustrum japonicum Variegata</t>
+  </si>
+  <si>
+    <t>Palmera datilera Hembra</t>
+  </si>
+  <si>
+    <t>Phoenix dactylifera Hembra</t>
+  </si>
+  <si>
+    <t>Morera blanca sin semillas</t>
+  </si>
+  <si>
+    <t>Morus alba Fruitless</t>
+  </si>
+  <si>
+    <t>Cupressus sempervirens sp.</t>
+  </si>
+  <si>
+    <t>Ciprés italiano</t>
+  </si>
+  <si>
+    <t>Cupressus sempervirens Stricta</t>
+  </si>
+  <si>
+    <t>Prunus cerasifera Pisardii</t>
+  </si>
+  <si>
+    <t>Palmera canaria Hembra</t>
+  </si>
+  <si>
+    <t>Phoenix canariensis Hembra</t>
+  </si>
+  <si>
+    <t>Palmera canaria Macho</t>
+  </si>
+  <si>
+    <t>Phoenix canariensis Macho</t>
+  </si>
+  <si>
+    <t>Tilia x europea / intermedia</t>
+  </si>
+  <si>
+    <t>ÁRBOLES EN SUELO PÚBLICO MUNICIPAL</t>
+  </si>
+  <si>
+    <t>Pyrus calleryana Chanticleer</t>
+  </si>
+  <si>
+    <t>Ficus microcarpa</t>
+  </si>
+  <si>
+    <t>Nerium oleander</t>
+  </si>
+  <si>
+    <t>Tamarix gallica</t>
+  </si>
+  <si>
+    <t>Ginkgo biloba</t>
+  </si>
+  <si>
+    <t>Ligustrum lucidum</t>
+  </si>
+  <si>
+    <t>Peral de flor</t>
+  </si>
+  <si>
+    <t>Baladre</t>
+  </si>
+  <si>
+    <t>Taray</t>
+  </si>
+  <si>
+    <t>Ginkgo</t>
+  </si>
+  <si>
+    <t>Aligustre de China</t>
+  </si>
+  <si>
+    <t>1. Árboles en suelo público municipal según especie y ubicación. 2023</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Parques y Jardines. Ayuntamiento de València.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -146,42 +481,43 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 6" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -250,13 +586,24 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF008000"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2100,1206 +2447,980 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja17">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="53.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>ÁRBOLES EN SUELO PÚBLICO MUNICIPAL</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="29.85546875" customWidth="1" min="1" max="1"/>
-    <col width="29.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" style="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>1. Árboles en suelo público municipal según especie y ubicación. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="10" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>Nombre común</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Nombre científico</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>Jardín</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>Viario</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="inlineStr"/>
-      <c r="C4" s="12" t="n">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="12">
         <v>144154</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="12">
         <v>84349</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="12">
         <v>59805</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Naranjo amargo</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Citrus aurantium</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="n">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="11">
         <v>11714</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>3133</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="11">
         <v>8581</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Plátano de sombra</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>Platanus hispanica</t>
-        </is>
-      </c>
-      <c r="C6" s="10" t="n">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="10">
         <v>9634</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="10">
         <v>4870</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="10">
         <v>4764</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Cinamomo</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Melia azedarach</t>
-        </is>
-      </c>
-      <c r="C7" s="11" t="n">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11">
         <v>7628</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="11">
         <v>1934</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="11">
         <v>5694</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Almez</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>Celtis australis</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="n">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="10">
         <v>7095</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="10">
         <v>4507</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="10">
         <v>2588</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Palmera mexicana</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Washingtonia robusta</t>
-        </is>
-      </c>
-      <c r="C9" s="11" t="n">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="11">
         <v>6263</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>3592</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="11">
         <v>2671</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Jacaranda</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>Jacaranda mimosifolia</t>
-        </is>
-      </c>
-      <c r="C10" s="10" t="n">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10">
         <v>4979</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="10">
         <v>3460</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="10">
         <v>1519</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Arce de hoja fresno</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>Acer negundo</t>
-        </is>
-      </c>
-      <c r="C11" s="11" t="n">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="11">
         <v>4403</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>1629</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="11">
         <v>2774</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Árbol botella</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>Brachychiton populneum</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="n">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10">
         <v>4209</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="10">
         <v>1551</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="10">
         <v>2658</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Palmera datilera</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>Phoenix dactylifera</t>
-        </is>
-      </c>
-      <c r="C13" s="11" t="n">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="11">
         <v>4053</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="11">
         <v>2626</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="11">
         <v>1427</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Árbol del amor</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>Cercis siliquastrum</t>
-        </is>
-      </c>
-      <c r="C14" s="10" t="n">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="10">
         <v>3934</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="10">
         <v>1552</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="10">
         <v>2382</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>Morera blanca sin semillas</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Morus alba Fruitless</t>
-        </is>
-      </c>
-      <c r="C15" s="11" t="n">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="11">
         <v>3054</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="11">
         <v>986</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="11">
         <v>2068</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>Aligustre del Japón</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
-        <is>
-          <t>Ligustrum japonicum</t>
-        </is>
-      </c>
-      <c r="C16" s="10" t="n">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="10">
         <v>2955</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="10">
         <v>1048</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="10">
         <v>1907</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>Pino piñonero</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>Pinus pinea</t>
-        </is>
-      </c>
-      <c r="C17" s="11" t="n">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="11">
         <v>2843</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="11">
         <v>2836</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Tipuana palo rosa</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>Tipuana tipu</t>
-        </is>
-      </c>
-      <c r="C18" s="10" t="n">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="10">
         <v>2828</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="10">
         <v>2426</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="10">
         <v>402</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>Ciprés</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>Cupressus sempervirens</t>
-        </is>
-      </c>
-      <c r="C19" s="11" t="n">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="11">
         <v>2399</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="11">
         <v>2095</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="11">
         <v>304</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>Acacia del Japón</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t>Sophora japonica</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="n">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10">
         <v>2366</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="10">
         <v>869</v>
       </c>
-      <c r="E20" s="10" t="n">
+      <c r="E20" s="10">
         <v>1497</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>Ciruelo de Pissard</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>Prunus cerasifera Pisardii</t>
-        </is>
-      </c>
-      <c r="C21" s="11" t="n">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="11">
         <v>2321</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="11">
         <v>1502</v>
       </c>
-      <c r="E21" s="11" t="n">
+      <c r="E21" s="11">
         <v>819</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>Morera blanca</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
-        <is>
-          <t>Morus alba</t>
-        </is>
-      </c>
-      <c r="C22" s="10" t="n">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="10">
         <v>2158</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="10">
         <v>1331</v>
       </c>
-      <c r="E22" s="10" t="n">
+      <c r="E22" s="10">
         <v>827</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>Palmito</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>Chamaerops humilis</t>
-        </is>
-      </c>
-      <c r="C23" s="11" t="n">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="11">
         <v>2071</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="11">
         <v>2035</v>
       </c>
-      <c r="E23" s="11" t="n">
+      <c r="E23" s="11">
         <v>36</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Aligustre del Japón variegado</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
-        <is>
-          <t>Ligustrum japonicum Variegata</t>
-        </is>
-      </c>
-      <c r="C24" s="10" t="n">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="10">
         <v>2071</v>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D24" s="10">
         <v>668</v>
       </c>
-      <c r="E24" s="10" t="n">
+      <c r="E24" s="10">
         <v>1403</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>Pino de oro</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>Grevillea robusta</t>
-        </is>
-      </c>
-      <c r="C25" s="11" t="n">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="11">
         <v>1841</v>
       </c>
-      <c r="D25" s="11" t="n">
+      <c r="D25" s="11">
         <v>1126</v>
       </c>
-      <c r="E25" s="11" t="n">
+      <c r="E25" s="11">
         <v>715</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>Pino carrasco</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
-        <is>
-          <t>Pinus halepensis</t>
-        </is>
-      </c>
-      <c r="C26" s="10" t="n">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="10">
         <v>1533</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="10">
         <v>1269</v>
       </c>
-      <c r="E26" s="10" t="n">
+      <c r="E26" s="10">
         <v>264</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>Olivo</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t>Olea europaea</t>
-        </is>
-      </c>
-      <c r="C27" s="11" t="n">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="11">
         <v>1431</v>
       </c>
-      <c r="D27" s="11" t="n">
+      <c r="D27" s="11">
         <v>1276</v>
       </c>
-      <c r="E27" s="11" t="n">
+      <c r="E27" s="11">
         <v>155</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="6" t="inlineStr">
-        <is>
-          <t>Fresno de flor</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="inlineStr">
-        <is>
-          <t>Fraxinus ornus</t>
-        </is>
-      </c>
-      <c r="C28" s="10" t="n">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="10">
         <v>1322</v>
       </c>
-      <c r="D28" s="10" t="n">
+      <c r="D28" s="10">
         <v>638</v>
       </c>
-      <c r="E28" s="10" t="n">
+      <c r="E28" s="10">
         <v>684</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>Peral de flor</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>Pyrus calleryana Chanticleer</t>
-        </is>
-      </c>
-      <c r="C29" s="11" t="n">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="11">
         <v>1197</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="11">
         <v>68</v>
       </c>
-      <c r="E29" s="11" t="n">
+      <c r="E29" s="11">
         <v>1129</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>Olmo de Siberia</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
-        <is>
-          <t>Ulmus pumila</t>
-        </is>
-      </c>
-      <c r="C30" s="10" t="n">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="10">
         <v>1187</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D30" s="10">
         <v>893</v>
       </c>
-      <c r="E30" s="10" t="n">
+      <c r="E30" s="10">
         <v>294</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>Falsa acacia</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>Robinia pseudoacacia</t>
-        </is>
-      </c>
-      <c r="C31" s="11" t="n">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="11">
         <v>1181</v>
       </c>
-      <c r="D31" s="11" t="n">
+      <c r="D31" s="11">
         <v>834</v>
       </c>
-      <c r="E31" s="11" t="n">
+      <c r="E31" s="11">
         <v>347</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="6" t="inlineStr">
-        <is>
-          <t>Fresno de hoja estrecha</t>
-        </is>
-      </c>
-      <c r="B32" s="6" t="inlineStr">
-        <is>
-          <t>Fraxinus angustifolia</t>
-        </is>
-      </c>
-      <c r="C32" s="10" t="n">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="10">
         <v>1178</v>
       </c>
-      <c r="D32" s="10" t="n">
+      <c r="D32" s="10">
         <v>743</v>
       </c>
-      <c r="E32" s="10" t="n">
+      <c r="E32" s="10">
         <v>435</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>Palmera de California</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>Washingtonia filifera</t>
-        </is>
-      </c>
-      <c r="C33" s="11" t="n">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="11">
         <v>1071</v>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="11">
         <v>906</v>
       </c>
-      <c r="E33" s="11" t="n">
+      <c r="E33" s="11">
         <v>165</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="6" t="inlineStr">
-        <is>
-          <t>Palmera canaria</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="inlineStr">
-        <is>
-          <t>Phoenix canariensis</t>
-        </is>
-      </c>
-      <c r="C34" s="10" t="n">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="10">
         <v>1058</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D34" s="10">
         <v>745</v>
       </c>
-      <c r="E34" s="10" t="n">
+      <c r="E34" s="10">
         <v>313</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="5" t="inlineStr">
-        <is>
-          <t>Ciprés italiano</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>Cupressus sempervirens Stricta</t>
-        </is>
-      </c>
-      <c r="C35" s="11" t="n">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="11">
         <v>1056</v>
       </c>
-      <c r="D35" s="11" t="n">
+      <c r="D35" s="11">
         <v>1006</v>
       </c>
-      <c r="E35" s="11" t="n">
+      <c r="E35" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="6" t="inlineStr">
-        <is>
-          <t>Ciprés</t>
-        </is>
-      </c>
-      <c r="B36" s="6" t="inlineStr">
-        <is>
-          <t>Cupressus sempervirens sp.</t>
-        </is>
-      </c>
-      <c r="C36" s="10" t="n">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="10">
         <v>1035</v>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D36" s="10">
         <v>1035</v>
       </c>
-      <c r="E36" s="10" t="n">
+      <c r="E36" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="5" t="inlineStr">
-        <is>
-          <t>Palmera de Fortune</t>
-        </is>
-      </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>Trachycarpus fortunei</t>
-        </is>
-      </c>
-      <c r="C37" s="11" t="n">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="11">
         <v>1019</v>
       </c>
-      <c r="D37" s="11" t="n">
+      <c r="D37" s="11">
         <v>907</v>
       </c>
-      <c r="E37" s="11" t="n">
+      <c r="E37" s="11">
         <v>112</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>Palmera datilera Hembra</t>
-        </is>
-      </c>
-      <c r="B38" s="6" t="inlineStr">
-        <is>
-          <t>Phoenix dactylifera Hembra</t>
-        </is>
-      </c>
-      <c r="C38" s="10" t="n">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="10">
         <v>1010</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="10">
         <v>1010</v>
       </c>
-      <c r="E38" s="10" t="n">
+      <c r="E38" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="5" t="inlineStr">
-        <is>
-          <t>Laurel de Indias</t>
-        </is>
-      </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>Ficus microcarpa</t>
-        </is>
-      </c>
-      <c r="C39" s="11" t="n">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="11">
         <v>986</v>
       </c>
-      <c r="D39" s="11" t="n">
+      <c r="D39" s="11">
         <v>163</v>
       </c>
-      <c r="E39" s="11" t="n">
+      <c r="E39" s="11">
         <v>823</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>Laurel de Indias</t>
-        </is>
-      </c>
-      <c r="B40" s="6" t="inlineStr">
-        <is>
-          <t>Ficus nitida</t>
-        </is>
-      </c>
-      <c r="C40" s="10" t="n">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="10">
         <v>916</v>
       </c>
-      <c r="D40" s="10" t="n">
+      <c r="D40" s="10">
         <v>916</v>
       </c>
-      <c r="E40" s="10" t="n">
+      <c r="E40" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="5" t="inlineStr">
-        <is>
-          <t>Álamo blanco</t>
-        </is>
-      </c>
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <t>Populus alba</t>
-        </is>
-      </c>
-      <c r="C41" s="11" t="n">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="11">
         <v>859</v>
       </c>
-      <c r="D41" s="11" t="n">
+      <c r="D41" s="11">
         <v>786</v>
       </c>
-      <c r="E41" s="11" t="n">
+      <c r="E41" s="11">
         <v>73</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>Árbol pica-pica</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="inlineStr">
-        <is>
-          <t>Lagunaria patersonii</t>
-        </is>
-      </c>
-      <c r="C42" s="10" t="n">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="10">
         <v>792</v>
       </c>
-      <c r="D42" s="10" t="n">
+      <c r="D42" s="10">
         <v>250</v>
       </c>
-      <c r="E42" s="10" t="n">
+      <c r="E42" s="10">
         <v>542</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="5" t="inlineStr">
-        <is>
-          <t>Encina</t>
-        </is>
-      </c>
-      <c r="B43" s="5" t="inlineStr">
-        <is>
-          <t>Quercus ilex</t>
-        </is>
-      </c>
-      <c r="C43" s="11" t="n">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="11">
         <v>759</v>
       </c>
-      <c r="D43" s="11" t="n">
+      <c r="D43" s="11">
         <v>530</v>
       </c>
-      <c r="E43" s="11" t="n">
+      <c r="E43" s="11">
         <v>229</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>Árbol de fuego illawarra</t>
-        </is>
-      </c>
-      <c r="B44" s="6" t="inlineStr">
-        <is>
-          <t>Brachychiton acerifolium</t>
-        </is>
-      </c>
-      <c r="C44" s="10" t="n">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="10">
         <v>752</v>
       </c>
-      <c r="D44" s="10" t="n">
+      <c r="D44" s="10">
         <v>207</v>
       </c>
-      <c r="E44" s="10" t="n">
+      <c r="E44" s="10">
         <v>545</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="5" t="inlineStr">
-        <is>
-          <t>Laurel</t>
-        </is>
-      </c>
-      <c r="B45" s="5" t="inlineStr">
-        <is>
-          <t>Laurus nobilis</t>
-        </is>
-      </c>
-      <c r="C45" s="11" t="n">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="11">
         <v>735</v>
       </c>
-      <c r="D45" s="11" t="n">
+      <c r="D45" s="11">
         <v>716</v>
       </c>
-      <c r="E45" s="11" t="n">
+      <c r="E45" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="6" t="inlineStr">
-        <is>
-          <t>Jabonero de China</t>
-        </is>
-      </c>
-      <c r="B46" s="6" t="inlineStr">
-        <is>
-          <t>Koelreuteria paniculata</t>
-        </is>
-      </c>
-      <c r="C46" s="10" t="n">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="10">
         <v>693</v>
       </c>
-      <c r="D46" s="10" t="n">
+      <c r="D46" s="10">
         <v>233</v>
       </c>
-      <c r="E46" s="10" t="n">
+      <c r="E46" s="10">
         <v>460</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="5" t="inlineStr">
-        <is>
-          <t>Palmera canaria Macho</t>
-        </is>
-      </c>
-      <c r="B47" s="5" t="inlineStr">
-        <is>
-          <t>Phoenix canariensis Macho</t>
-        </is>
-      </c>
-      <c r="C47" s="11" t="n">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="11">
         <v>667</v>
       </c>
-      <c r="D47" s="11" t="n">
+      <c r="D47" s="11">
         <v>667</v>
       </c>
-      <c r="E47" s="11" t="n">
+      <c r="E47" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" s="6" t="inlineStr">
-        <is>
-          <t>Palmera canaria Hembra</t>
-        </is>
-      </c>
-      <c r="B48" s="6" t="inlineStr">
-        <is>
-          <t>Phoenix canariensis Hembra</t>
-        </is>
-      </c>
-      <c r="C48" s="10" t="n">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="10">
         <v>662</v>
       </c>
-      <c r="D48" s="10" t="n">
+      <c r="D48" s="10">
         <v>662</v>
       </c>
-      <c r="E48" s="10" t="n">
+      <c r="E48" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="5" t="inlineStr">
-        <is>
-          <t>Baladre</t>
-        </is>
-      </c>
-      <c r="B49" s="5" t="inlineStr">
-        <is>
-          <t>Nerium oleander</t>
-        </is>
-      </c>
-      <c r="C49" s="11" t="n">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="11">
         <v>644</v>
       </c>
-      <c r="D49" s="11" t="n">
+      <c r="D49" s="11">
         <v>328</v>
       </c>
-      <c r="E49" s="11" t="n">
+      <c r="E49" s="11">
         <v>316</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" s="6" t="inlineStr">
-        <is>
-          <t>Catalpa común</t>
-        </is>
-      </c>
-      <c r="B50" s="6" t="inlineStr">
-        <is>
-          <t>Catalpa bignonioides</t>
-        </is>
-      </c>
-      <c r="C50" s="10" t="n">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="10">
         <v>630</v>
       </c>
-      <c r="D50" s="10" t="n">
+      <c r="D50" s="10">
         <v>376</v>
       </c>
-      <c r="E50" s="10" t="n">
+      <c r="E50" s="10">
         <v>254</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="5" t="inlineStr">
-        <is>
-          <t>Taray</t>
-        </is>
-      </c>
-      <c r="B51" s="5" t="inlineStr">
-        <is>
-          <t>Tamarix gallica</t>
-        </is>
-      </c>
-      <c r="C51" s="11" t="n">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="11">
         <v>621</v>
       </c>
-      <c r="D51" s="11" t="n">
+      <c r="D51" s="11">
         <v>457</v>
       </c>
-      <c r="E51" s="11" t="n">
+      <c r="E51" s="11">
         <v>164</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>Ginkgo</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
-        <is>
-          <t>Ginkgo biloba</t>
-        </is>
-      </c>
-      <c r="C52" s="10" t="n">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="10">
         <v>564</v>
       </c>
-      <c r="D52" s="10" t="n">
+      <c r="D52" s="10">
         <v>344</v>
       </c>
-      <c r="E52" s="10" t="n">
+      <c r="E52" s="10">
         <v>220</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="5" t="inlineStr">
-        <is>
-          <t>Tilo de Holanda</t>
-        </is>
-      </c>
-      <c r="B53" s="5" t="inlineStr">
-        <is>
-          <t>Tilia x europea / intermedia</t>
-        </is>
-      </c>
-      <c r="C53" s="11" t="n">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="11">
         <v>548</v>
       </c>
-      <c r="D53" s="11" t="n">
+      <c r="D53" s="11">
         <v>433</v>
       </c>
-      <c r="E53" s="11" t="n">
+      <c r="E53" s="11">
         <v>115</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="6" t="inlineStr">
-        <is>
-          <t>Aligustre de China</t>
-        </is>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
-        <is>
-          <t>Ligustrum lucidum</t>
-        </is>
-      </c>
-      <c r="C54" s="10" t="n">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="10">
         <v>542</v>
       </c>
-      <c r="D54" s="10" t="n">
+      <c r="D54" s="10">
         <v>419</v>
       </c>
-      <c r="E54" s="10" t="n">
+      <c r="E54" s="10">
         <v>123</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" s="5" t="inlineStr">
-        <is>
-          <t>Otras especies</t>
-        </is>
-      </c>
-      <c r="B55" s="5" t="inlineStr"/>
-      <c r="C55" s="11" t="n">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="11">
         <v>26687</v>
       </c>
-      <c r="D55" s="11" t="n">
+      <c r="D55" s="11">
         <v>19756</v>
       </c>
-      <c r="E55" s="11" t="n">
+      <c r="E55" s="11">
         <v>6931</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="4" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Parques y Jardines. Ayuntamiento de València.</t>
-        </is>
-      </c>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="92" horizontalDpi="300" verticalDpi="300"/>
+  <sortState ref="A8:F59">
+    <sortCondition descending="1" ref="C8:C59"/>
+  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>